--- a/BackTest/2019-11-01 BackTest MTL.xlsx
+++ b/BackTest/2019-11-01 BackTest MTL.xlsx
@@ -871,14 +871,20 @@
         <v>425.9833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>421</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,14 +912,20 @@
         <v>425.85</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>421</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -941,14 +953,20 @@
         <v>425.7333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>418</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1001,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1040,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1079,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1081,14 +1111,20 @@
         <v>425.2833333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>422</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1116,14 +1152,20 @@
         <v>425.1666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>422</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1200,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1186,14 +1232,20 @@
         <v>425.0333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>419</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1280,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1319,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1358,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1397,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1436,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1475,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1514,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1553,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1592,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1631,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1670,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1606,18 +1702,16 @@
         <v>423.3333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>420</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1647,14 +1741,12 @@
         <v>423.2666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>421</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1688,14 +1780,12 @@
         <v>423.15</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>421</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1729,14 +1819,12 @@
         <v>423.0333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>418</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1770,14 +1858,12 @@
         <v>422.8333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>420</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1811,14 +1897,12 @@
         <v>422.6666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>418</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1852,14 +1936,12 @@
         <v>422.5833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>421</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1893,14 +1975,12 @@
         <v>422.4666666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>420</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1934,14 +2014,12 @@
         <v>422.4166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>419</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -1975,14 +2053,12 @@
         <v>422.35</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>422</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2016,14 +2092,12 @@
         <v>422.3</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>423</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2057,14 +2131,12 @@
         <v>422.1833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>420</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2098,14 +2170,12 @@
         <v>422.0666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>419</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2139,14 +2209,12 @@
         <v>422</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>419</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2180,14 +2248,12 @@
         <v>421.85</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>420</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2221,14 +2287,12 @@
         <v>421.75</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>420</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2262,14 +2326,12 @@
         <v>421.65</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>421</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2303,14 +2365,12 @@
         <v>421.5666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>421</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2344,14 +2404,12 @@
         <v>421.4833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>421</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2385,14 +2443,12 @@
         <v>421.4</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>421</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2426,14 +2482,12 @@
         <v>421.3166666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>420</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2467,14 +2521,12 @@
         <v>421.2833333333334</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>422</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2508,14 +2560,12 @@
         <v>421.2833333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>422</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2549,14 +2599,12 @@
         <v>421.2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>423</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2590,14 +2638,12 @@
         <v>421.1666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>423</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2631,14 +2677,12 @@
         <v>421.1666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>423</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -5444,18 +5488,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5487,11 +5529,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5526,11 +5564,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5599,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5634,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5643,11 +5669,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5682,11 +5704,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5721,11 +5739,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5760,11 +5774,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5799,11 +5809,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5844,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5877,11 +5879,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5916,11 +5914,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5955,11 +5949,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +5984,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6033,11 +6019,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +6054,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6111,11 +6089,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6150,11 +6124,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6189,11 +6159,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6228,11 +6194,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +6229,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6306,11 +6264,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6345,11 +6299,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6384,11 +6334,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +6369,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6404,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6439,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6540,11 +6474,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6509,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6618,11 +6544,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6657,11 +6579,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6696,11 +6614,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6649,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6774,11 +6684,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6813,11 +6719,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6852,11 +6754,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +6789,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6930,11 +6824,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6969,11 +6859,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7008,11 +6894,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7047,11 +6929,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7086,11 +6964,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7125,11 +6999,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7164,11 +7034,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7203,11 +7069,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7242,11 +7104,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7139,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +7174,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7359,11 +7209,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +7244,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7437,11 +7279,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7476,11 +7314,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7515,11 +7349,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7554,11 +7384,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7593,11 +7419,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7632,11 +7454,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7671,11 +7489,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +7524,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7749,11 +7559,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7788,11 +7594,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7629,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7866,11 +7664,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7905,11 +7699,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7944,11 +7734,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7983,11 +7769,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +7804,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8061,11 +7839,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8100,11 +7874,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8139,11 +7909,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7944,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +7979,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +8014,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8295,11 +8049,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8334,11 +8084,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8373,11 +8119,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8412,11 +8154,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8451,11 +8189,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8490,11 +8224,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8529,11 +8259,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8294,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +8329,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +8364,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8685,11 +8399,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8724,11 +8434,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8469,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8802,11 +8504,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8841,11 +8539,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +8574,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8609,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8958,11 +8644,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8997,11 +8679,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +8714,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9075,11 +8749,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +8784,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +8819,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9192,11 +8854,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9231,11 +8889,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9270,11 +8924,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9309,11 +8959,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9348,11 +8994,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9387,11 +9029,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9426,11 +9064,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9465,11 +9099,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9504,11 +9134,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9543,11 +9169,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9582,11 +9204,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +9239,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9660,11 +9274,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +9309,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9738,11 +9344,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9777,11 +9379,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9816,11 +9414,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9855,11 +9449,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +9484,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9933,11 +9519,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9972,11 +9554,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10011,11 +9589,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10050,11 +9624,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10089,11 +9659,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10128,11 +9694,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10167,11 +9729,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +9764,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10245,11 +9799,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10284,11 +9834,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10323,11 +9869,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +9904,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10401,11 +9939,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10440,11 +9974,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10472,18 +10002,18 @@
         <v>426.95</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="n">
+        <v>423</v>
+      </c>
+      <c r="K261" t="n">
+        <v>423</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10511,16 +10041,20 @@
         <v>426.8333333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>423</v>
+      </c>
+      <c r="K262" t="n">
+        <v>423</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M262" t="n">
@@ -10550,13 +10084,17 @@
         <v>426.7333333333333</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>421</v>
+      </c>
+      <c r="K263" t="n">
+        <v>423</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10595,7 +10133,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>423</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,7 +10174,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>423</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10673,7 +10215,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>423</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10712,7 +10256,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>423</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10745,13 +10291,17 @@
         <v>426.15</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>420</v>
+      </c>
+      <c r="K268" t="n">
+        <v>423</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10784,13 +10334,17 @@
         <v>426.0333333333334</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>420</v>
+      </c>
+      <c r="K269" t="n">
+        <v>423</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10823,13 +10377,17 @@
         <v>425.8666666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>420</v>
+      </c>
+      <c r="K270" t="n">
+        <v>423</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10862,13 +10420,17 @@
         <v>425.7333333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>420</v>
+      </c>
+      <c r="K271" t="n">
+        <v>423</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,13 +10463,17 @@
         <v>425.6</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>422</v>
+      </c>
+      <c r="K272" t="n">
+        <v>423</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10940,13 +10506,17 @@
         <v>425.4666666666666</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>423</v>
+      </c>
+      <c r="K273" t="n">
+        <v>423</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,7 +10555,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>423</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11018,13 +10590,17 @@
         <v>425.2333333333333</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>425</v>
+      </c>
+      <c r="K275" t="n">
+        <v>423</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11057,13 +10633,17 @@
         <v>425.0833333333333</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>419</v>
+      </c>
+      <c r="K276" t="n">
+        <v>423</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11096,13 +10676,17 @@
         <v>424.9833333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>420</v>
+      </c>
+      <c r="K277" t="n">
+        <v>423</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11141,7 +10725,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>423</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,7 +10766,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>423</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11219,7 +10807,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>423</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11258,7 +10848,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>423</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11297,7 +10889,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>423</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11336,7 +10930,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>423</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,7 +10971,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>423</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11414,7 +11012,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>423</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,7 +11053,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>423</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,7 +11094,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>423</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11531,7 +11135,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>423</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,7 +11176,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>423</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,7 +11217,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>423</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11648,7 +11258,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>423</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11687,7 +11299,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>423</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,7 +11340,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>423</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11765,7 +11381,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>423</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11804,7 +11422,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>423</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,7 +11463,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>423</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,7 +11504,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>423</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,7 +11545,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>423</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,7 +11586,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>423</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11999,7 +11627,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>423</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,7 +11668,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>423</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12077,7 +11709,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>423</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,7 +11750,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>423</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12155,7 +11791,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>423</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,7 +11832,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>423</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12233,7 +11873,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>423</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12272,7 +11914,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>423</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12308,16 +11952,20 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>423</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M308" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12345,11 +11993,17 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>423</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12380,11 +12034,17 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>423</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12418,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>423</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12453,8 +12119,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>423</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12488,8 +12160,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>423</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12523,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>423</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12558,8 +12242,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>423</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12593,8 +12283,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>423</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12628,8 +12324,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>423</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12663,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>423</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12698,8 +12406,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>423</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12733,8 +12447,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>423</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12768,8 +12488,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>423</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12803,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>423</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12838,8 +12570,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>423</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12873,8 +12611,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>423</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12908,8 +12652,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>423</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12943,8 +12693,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>423</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12978,8 +12734,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>423</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13013,8 +12775,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>423</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13048,8 +12816,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>423</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13083,8 +12857,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>423</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13118,8 +12898,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>423</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13153,8 +12939,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>423</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13188,8 +12980,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>423</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13223,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>423</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13062,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>423</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13293,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>423</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13328,8 +13144,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>423</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13363,8 +13185,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>423</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13398,8 +13226,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>423</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13433,8 +13267,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>423</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13468,8 +13308,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>423</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13503,8 +13349,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>423</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13538,8 +13390,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>423</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13573,8 +13431,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>423</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13608,8 +13472,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>423</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13643,8 +13513,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>423</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13678,8 +13554,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>423</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13713,8 +13595,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>423</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13748,8 +13636,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>423</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13783,8 +13677,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>423</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13818,8 +13718,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>423</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13853,8 +13759,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>423</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13888,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>423</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13923,8 +13841,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>423</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13958,8 +13882,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>423</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13993,8 +13923,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>423</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14028,8 +13964,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>423</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14063,8 +14005,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>423</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14098,8 +14046,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>423</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14133,8 +14087,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>423</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14168,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>423</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14203,8 +14169,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>423</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14238,8 +14210,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>423</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14273,8 +14251,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>423</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14308,8 +14292,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>423</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14343,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>423</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14378,8 +14374,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>423</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +14415,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>423</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14448,8 +14456,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>423</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14483,8 +14497,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>423</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14518,8 +14538,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>423</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14553,8 +14579,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>423</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +14620,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>423</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14623,8 +14661,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>423</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14658,8 +14702,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>423</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14693,8 +14743,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>423</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14728,8 +14784,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>423</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14763,8 +14825,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>423</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14798,8 +14866,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>423</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14833,8 +14907,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>423</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14868,8 +14948,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>423</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14903,8 +14989,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>423</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14938,8 +15030,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>423</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14973,8 +15071,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>423</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15008,8 +15112,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>423</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15043,8 +15153,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>423</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15078,8 +15194,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>423</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15113,8 +15235,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>423</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15148,8 +15276,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>423</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15183,8 +15317,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>423</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15218,8 +15358,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>423</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15253,8 +15399,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>423</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15288,8 +15440,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>423</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15323,8 +15481,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>423</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15358,8 +15522,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>423</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15393,8 +15563,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>423</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15428,8 +15604,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>423</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15463,8 +15645,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>423</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +15686,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>423</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15533,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>423</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +15768,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>423</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15603,8 +15809,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>423</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15638,8 +15850,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>423</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15673,8 +15891,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>423</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15708,8 +15932,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>423</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15743,8 +15973,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>423</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15778,8 +16014,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>423</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15813,8 +16055,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>423</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15848,8 +16096,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>423</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15883,8 +16137,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>423</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15918,8 +16178,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>423</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15953,8 +16219,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>423</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15988,8 +16260,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>423</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16023,8 +16301,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>423</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16058,8 +16342,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>423</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16093,8 +16383,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>423</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16128,8 +16424,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>423</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16163,8 +16465,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>423</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16198,8 +16506,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>423</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16233,8 +16547,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>423</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16268,8 +16588,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>423</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16303,8 +16629,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>423</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16338,8 +16670,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>423</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16373,8 +16711,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>423</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16408,8 +16752,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>423</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16443,8 +16793,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>423</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16478,8 +16834,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>423</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16513,8 +16875,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>423</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16548,8 +16916,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>423</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16583,8 +16957,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>423</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16618,8 +16998,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>423</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +17039,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>423</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16688,8 +17080,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>423</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16723,8 +17121,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>423</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16758,8 +17162,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>423</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16793,8 +17203,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>423</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16828,8 +17244,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>423</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16863,8 +17285,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>423</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16898,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>423</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16933,8 +17367,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>423</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16968,8 +17408,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>423</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17003,8 +17449,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>423</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17038,8 +17490,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>423</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17073,8 +17531,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>423</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17108,8 +17572,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>423</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17143,8 +17613,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>423</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17178,8 +17654,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>423</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17213,8 +17695,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>423</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17248,8 +17736,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>423</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17283,8 +17777,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>423</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17318,8 +17818,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>423</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17347,14 +17853,22 @@
         <v>424.8166666666667</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>423</v>
+      </c>
+      <c r="K452" t="n">
+        <v>423</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17388,8 +17902,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>423</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17417,14 +17937,22 @@
         <v>424.6666666666667</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>422</v>
+      </c>
+      <c r="K454" t="n">
+        <v>423</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17452,14 +17980,22 @@
         <v>424.6333333333333</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>423</v>
+      </c>
+      <c r="K455" t="n">
+        <v>423</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17493,8 +18029,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>423</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17528,8 +18070,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>423</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17563,8 +18111,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>423</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17598,8 +18152,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>423</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17633,8 +18193,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>423</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17668,8 +18234,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>423</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17703,8 +18275,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>423</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17738,8 +18316,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>423</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17773,8 +18357,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>423</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17808,8 +18398,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>423</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17843,8 +18439,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>423</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17878,8 +18480,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>423</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17913,8 +18521,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>423</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17948,8 +18562,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>423</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17983,8 +18603,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>423</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18018,8 +18644,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>423</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18053,8 +18685,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>423</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18088,8 +18726,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>423</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18123,8 +18767,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>423</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18158,8 +18808,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>423</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18193,8 +18849,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>423</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18228,8 +18890,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>423</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18263,8 +18931,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>423</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18298,8 +18972,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>423</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18333,8 +19013,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>423</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18368,8 +19054,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>423</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18403,8 +19095,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>423</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18438,8 +19136,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>423</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18473,8 +19177,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>423</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18508,8 +19218,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>423</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18543,8 +19259,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>423</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18578,8 +19300,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>423</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18613,8 +19341,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>423</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18648,8 +19382,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>423</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18683,8 +19423,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>423</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18718,8 +19464,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>423</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18753,8 +19505,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>423</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18788,8 +19546,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>423</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18823,8 +19587,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>423</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18858,8 +19628,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>423</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18893,8 +19669,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>423</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18928,8 +19710,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>423</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18963,8 +19751,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>423</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18998,8 +19792,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>423</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19033,8 +19833,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>423</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19068,8 +19874,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>423</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19103,8 +19915,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>423</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19138,8 +19956,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>423</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19173,8 +19997,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>423</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19208,8 +20038,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>423</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19243,8 +20079,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>423</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19278,8 +20120,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>423</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19313,8 +20161,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>423</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19348,8 +20202,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>423</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19383,8 +20243,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>423</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19418,8 +20284,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>423</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19453,8 +20325,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>423</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19488,8 +20366,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>423</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19523,8 +20407,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>423</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19558,8 +20448,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>423</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19593,8 +20489,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>423</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19628,8 +20530,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>423</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19663,8 +20571,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>423</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19698,8 +20612,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>423</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19733,8 +20653,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>423</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19768,8 +20694,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>423</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19803,8 +20735,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>423</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19838,8 +20776,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>423</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19873,8 +20817,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>423</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19908,8 +20858,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>423</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19943,8 +20899,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>423</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19978,8 +20940,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>423</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20013,8 +20981,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>423</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20048,8 +21022,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>423</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20083,8 +21063,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>423</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20118,8 +21104,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>423</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20153,8 +21145,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>423</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +21186,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>423</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20223,8 +21227,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>423</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20258,8 +21268,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>423</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20293,8 +21309,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>423</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20328,8 +21350,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>423</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20363,8 +21391,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>423</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20398,8 +21432,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>423</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20433,8 +21473,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>423</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20468,8 +21514,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>423</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20503,8 +21555,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>423</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20538,8 +21596,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>423</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20573,8 +21637,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>423</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20608,8 +21678,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>423</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20643,8 +21719,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>423</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20678,8 +21760,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>423</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20713,8 +21801,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>423</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20748,8 +21842,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>423</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20783,8 +21883,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>423</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20818,8 +21924,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>423</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20853,8 +21965,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>423</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20888,8 +22006,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>423</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20923,8 +22047,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>423</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20958,8 +22088,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>423</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20993,8 +22129,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>423</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21028,8 +22170,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>423</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21063,8 +22211,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>423</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21098,8 +22252,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>423</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21133,8 +22293,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>423</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21168,8 +22334,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>423</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21203,8 +22375,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>423</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21238,8 +22416,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>423</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21273,8 +22457,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>423</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21308,8 +22498,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>423</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +22539,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>423</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21378,8 +22580,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>423</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21413,8 +22621,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>423</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21448,8 +22662,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>423</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21483,8 +22703,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>423</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21518,8 +22744,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>423</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21553,8 +22785,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>423</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest MTL.xlsx
+++ b/BackTest/2019-11-01 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-51239.29307744999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-53807.38117744999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-53807.38117744999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-53807.38117744999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-51560.95577744999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-51560.95577744999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-35933.85904535999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-26922.27858114999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26922.27858114999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24232.17156478999</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24232.17156478999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-65225.40197281999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-68236.70237282</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-83667.47797281999</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-83667.47797281999</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-79078.44237281999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-82062.39707281999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-111102.46457282</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-111102.46457282</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-109359.17067282</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-109359.17067282</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-106392.05197282</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-110729.81257282</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-110729.81257282</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-110729.81257282</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-117797.29167282</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-122674.27147282</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-120109.89657282</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-127189.08107282</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3619,11 +3619,17 @@
         <v>-229142.50908798</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>418</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3658,17 @@
         <v>-228504.65878798</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>418</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3697,17 @@
         <v>-228503.65878798</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>420</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3736,17 @@
         <v>-228886.34878798</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>421</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3775,17 @@
         <v>-222599.70408798</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>420</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3818,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3855,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3892,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3929,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +3966,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4003,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4040,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4077,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4114,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4151,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4188,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,15 +4221,15 @@
         <v>-204414.9532879801</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>420</v>
-      </c>
-      <c r="J114" t="n">
-        <v>420</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,17 +4258,13 @@
         <v>-204413.9532879801</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>420</v>
-      </c>
-      <c r="J115" t="n">
-        <v>420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4228,12 +4298,10 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>420</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4268,7 +4336,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4301,7 +4373,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4334,7 +4410,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4367,7 +4447,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4400,7 +4484,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4433,7 +4521,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4466,7 +4558,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4499,7 +4595,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4532,7 +4632,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4565,7 +4669,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4598,7 +4706,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4631,7 +4743,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4664,7 +4780,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4697,7 +4817,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4730,7 +4854,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4891,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4796,7 +4928,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4829,7 +4965,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4862,7 +5002,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4895,7 +5039,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4928,7 +5076,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4957,15 +5109,13 @@
         <v>-211945.99418798</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -4996,11 +5146,9 @@
         <v>-206989.88178798</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5035,11 +5183,9 @@
         <v>-208510.51448798</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5111,11 +5257,9 @@
         <v>-210836.77568798</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5150,11 +5294,9 @@
         <v>-210836.77568798</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5189,11 +5331,9 @@
         <v>-210836.77568798</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5228,11 +5368,9 @@
         <v>-208527.90628798</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5267,11 +5405,9 @@
         <v>-208627.90628798</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5306,11 +5442,9 @@
         <v>-208627.90628798</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5345,11 +5479,9 @@
         <v>-208627.90628798</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5384,11 +5516,9 @@
         <v>-208627.90628798</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5423,11 +5553,9 @@
         <v>-160159.33118798</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5721,11 +5849,9 @@
         <v>-144932.56508798</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5760,11 +5886,9 @@
         <v>-136748.25858798</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5799,11 +5923,9 @@
         <v>-137496.68838798</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6060,11 +6182,9 @@
         <v>-138802.4104912201</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6099,11 +6219,9 @@
         <v>-138802.4104912201</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6138,11 +6256,9 @@
         <v>-139706.8347912201</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6732,7 +6848,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6806,16 +6922,18 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
       <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -6841,11 +6959,15 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +6996,15 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6907,11 +7033,15 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +7070,15 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +7107,15 @@
         <v>-109765.9535912201</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7010,7 +7148,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +7181,15 @@
         <v>-107177.6701912201</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +7218,15 @@
         <v>-107177.6701912201</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +7255,15 @@
         <v>-107207.6701912201</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7138,11 +7292,15 @@
         <v>-107207.6701912201</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +7329,15 @@
         <v>-107205.8720912201</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +7366,15 @@
         <v>-107427.4055912201</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7241,7 +7407,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7274,7 +7444,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7481,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7340,7 +7518,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7373,7 +7555,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7402,11 +7588,15 @@
         <v>-116084.6640912201</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7435,11 +7625,15 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +7662,15 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7501,11 +7699,15 @@
         <v>-117647.2968912201</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7534,11 +7736,15 @@
         <v>-120112.5640912201</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7567,11 +7773,15 @@
         <v>-122793.1561912201</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7600,11 +7810,15 @@
         <v>-122792.1561912201</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7633,11 +7847,15 @@
         <v>-128792.1561912201</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7666,11 +7884,15 @@
         <v>-140309.5122912201</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7699,11 +7921,15 @@
         <v>-121504.2037912201</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7736,7 +7962,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7765,11 +7995,15 @@
         <v>-121503.2037912201</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7802,7 +8036,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7835,7 +8073,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7868,7 +8110,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7901,7 +8147,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +8180,15 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7967,7 +8221,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7996,11 +8254,15 @@
         <v>-117978.4069912201</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8033,7 +8295,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8066,7 +8332,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8099,7 +8369,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8132,7 +8406,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +8439,15 @@
         <v>-118563.9912912201</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8198,7 +8480,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8231,7 +8517,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8264,7 +8554,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8297,7 +8591,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +8624,15 @@
         <v>-105844.4616912201</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8359,11 +8661,15 @@
         <v>-105844.4616912201</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8392,11 +8698,15 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8425,11 +8735,15 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +8772,15 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8491,11 +8809,15 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +8846,15 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8561,7 +8887,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8590,11 +8920,15 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8623,11 +8957,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8660,7 +8998,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +9031,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8722,11 +9068,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +9105,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +9142,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +9179,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8854,11 +9216,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8887,11 +9253,15 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +9290,15 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8953,11 +9327,15 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8986,11 +9364,15 @@
         <v>-98535.88808637008</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +9401,15 @@
         <v>-97492.40895757008</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9052,11 +9438,15 @@
         <v>-97864.14495757008</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9085,11 +9475,15 @@
         <v>-100197.7262575701</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9118,11 +9512,15 @@
         <v>-94884.30685757009</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +9549,15 @@
         <v>-94418.49335757009</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9184,11 +9586,15 @@
         <v>-97312.26695757009</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +9623,15 @@
         <v>-112264.6467575701</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +9660,15 @@
         <v>-113842.4515575701</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9283,11 +9697,15 @@
         <v>-120733.4670575701</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9320,7 +9738,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9353,7 +9775,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9386,7 +9812,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +9845,15 @@
         <v>-122143.8854575701</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9452,7 +9886,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9485,7 +9923,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9518,7 +9960,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +9997,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9584,7 +10034,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9617,7 +10071,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9650,7 +10108,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9683,7 +10145,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9716,7 +10182,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9749,7 +10219,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9782,7 +10256,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9811,11 +10289,15 @@
         <v>-132120.5459575701</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9848,7 +10330,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9881,7 +10367,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +10404,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9943,11 +10437,15 @@
         <v>-160740.4243575701</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9980,7 +10478,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10515,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10046,7 +10552,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10079,7 +10589,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10112,7 +10626,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10145,7 +10663,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10178,7 +10700,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10211,7 +10737,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10240,11 +10770,15 @@
         <v>-158926.9912575701</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10273,11 +10807,15 @@
         <v>-158926.9912575701</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10306,11 +10844,15 @@
         <v>-158925.9912575701</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10343,7 +10885,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10376,7 +10922,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10409,7 +10959,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10442,7 +10996,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10475,7 +11033,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10508,7 +11070,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10541,7 +11107,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10574,7 +11144,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10607,7 +11181,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10640,7 +11218,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10673,7 +11255,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10706,7 +11292,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10739,7 +11329,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10772,7 +11366,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10805,7 +11403,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10838,7 +11440,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10871,7 +11477,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10904,7 +11514,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10937,7 +11551,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10970,7 +11588,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11003,7 +11625,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11036,7 +11662,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11069,7 +11699,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11102,7 +11736,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11135,7 +11773,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +11810,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11201,7 +11847,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11234,7 +11884,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11267,7 +11921,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11300,7 +11958,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11333,7 +11995,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11366,7 +12032,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11399,7 +12069,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11432,7 +12106,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11465,7 +12143,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11498,7 +12180,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11531,7 +12217,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11564,7 +12254,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11597,7 +12291,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11630,7 +12328,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11663,7 +12365,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11696,7 +12402,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11729,7 +12439,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11762,7 +12476,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11795,7 +12513,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11828,7 +12550,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11861,7 +12587,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11894,7 +12624,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11927,7 +12661,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11960,7 +12698,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11993,7 +12735,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12026,7 +12772,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12059,7 +12809,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12092,7 +12846,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12125,7 +12883,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12158,7 +12920,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12191,7 +12957,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12224,7 +12994,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12257,7 +13031,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12290,7 +13068,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +13105,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12356,7 +13142,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12389,7 +13179,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12422,7 +13216,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12455,7 +13253,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12488,7 +13290,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12521,7 +13327,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12554,7 +13364,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12587,7 +13401,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12620,7 +13438,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12653,7 +13475,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12686,7 +13512,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12719,7 +13549,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12752,7 +13586,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12785,7 +13623,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12818,7 +13660,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12851,7 +13697,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12884,7 +13734,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12917,7 +13771,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12950,7 +13808,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12979,15 +13841,13 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L374" t="n">
@@ -13055,11 +13915,9 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13094,11 +13952,9 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13133,11 +13989,9 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13283,7 +14137,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13320,7 +14174,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13357,7 +14211,7 @@
         <v>-213882.9716305801</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13394,11 +14248,9 @@
         <v>-206640.0842305801</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13433,11 +14285,9 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13509,11 +14359,9 @@
         <v>-213600.3771953201</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13548,11 +14396,9 @@
         <v>-212241.8223953201</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13587,11 +14433,9 @@
         <v>-212241.8223953201</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13626,16 +14470,18 @@
         <v>-210398.3317441601</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L391" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
       <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -13661,11 +14507,15 @@
         <v>-206842.2856078501</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +14544,15 @@
         <v>-207301.8308078501</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +14581,15 @@
         <v>-208870.61000785</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13760,11 +14618,15 @@
         <v>-204995.28849532</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13793,11 +14655,15 @@
         <v>-206310.77749532</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13826,11 +14692,15 @@
         <v>-202712.03219532</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +14729,15 @@
         <v>-204231.29719532</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13892,11 +14766,15 @@
         <v>-202940.03109532</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13925,11 +14803,15 @@
         <v>-202913.79509532</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +14840,15 @@
         <v>-205293.79509532</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +14877,15 @@
         <v>-204981.79509532</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14024,11 +14914,15 @@
         <v>-204981.79509532</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14057,11 +14951,15 @@
         <v>-203832.31419532</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14090,11 +14988,15 @@
         <v>-191360.23629532</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14123,11 +15025,15 @@
         <v>-191847.86919532</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14156,11 +15062,15 @@
         <v>-186389.72739532</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14189,11 +15099,15 @@
         <v>-191088.96349532</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14222,11 +15136,15 @@
         <v>-187687.86179532</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14259,7 +15177,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14288,11 +15210,15 @@
         <v>-186427.79449532</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14321,11 +15247,15 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14354,11 +15284,15 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +15321,15 @@
         <v>-195168.61059532</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14420,11 +15358,15 @@
         <v>-195168.61059532</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14457,7 +15399,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14490,7 +15436,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14523,7 +15473,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14556,7 +15510,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14589,7 +15547,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14622,7 +15584,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14655,7 +15621,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14688,7 +15658,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14721,7 +15695,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14754,7 +15732,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +15769,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14820,7 +15806,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14853,7 +15843,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14886,7 +15880,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14919,7 +15917,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14952,7 +15954,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14985,7 +15991,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +16028,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15051,7 +16065,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15084,7 +16102,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15117,7 +16139,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15150,7 +16176,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15183,7 +16213,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15216,7 +16250,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15249,7 +16287,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15282,7 +16324,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15315,7 +16361,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15348,7 +16398,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15381,7 +16435,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15414,7 +16472,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15447,7 +16509,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15480,7 +16546,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15513,7 +16583,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15546,7 +16620,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +16657,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15612,7 +16694,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15645,7 +16731,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15678,7 +16768,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15711,7 +16805,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15744,7 +16842,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +16879,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15810,7 +16916,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15843,7 +16953,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15876,7 +16990,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15909,7 +17027,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15942,7 +17064,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15975,7 +17101,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16008,7 +17138,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16041,7 +17175,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16074,7 +17212,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16107,7 +17249,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16140,7 +17286,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16173,7 +17323,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16206,7 +17360,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16239,7 +17397,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16272,7 +17434,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16305,7 +17471,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16338,7 +17508,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16371,7 +17545,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16404,7 +17582,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16437,7 +17619,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16470,7 +17656,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16503,7 +17693,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16536,7 +17730,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16569,7 +17767,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16602,7 +17804,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16635,7 +17841,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16668,7 +17878,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16701,7 +17915,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16734,7 +17952,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16767,7 +17989,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16800,7 +18026,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16833,7 +18063,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16862,11 +18096,17 @@
         <v>-247669.2303846001</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>424</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16899,7 +18139,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16932,7 +18176,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16965,7 +18213,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16998,7 +18250,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17031,7 +18287,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17060,15 +18320,15 @@
         <v>-258456.9950846001</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>423</v>
-      </c>
-      <c r="J495" t="n">
-        <v>423</v>
-      </c>
-      <c r="K495" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17097,17 +18357,13 @@
         <v>-258396.0201846001</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>424</v>
-      </c>
-      <c r="J496" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L496" t="n">
@@ -17138,17 +18394,13 @@
         <v>-258396.0201846001</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>425</v>
-      </c>
-      <c r="J497" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L497" t="n">
@@ -17179,17 +18431,13 @@
         <v>-258396.0201846001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>425</v>
-      </c>
-      <c r="J498" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L498" t="n">
@@ -17220,14 +18468,10 @@
         <v>-258814.7246846001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>425</v>
-      </c>
-      <c r="J499" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17261,14 +18505,10 @@
         <v>-258814.7246846001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>422</v>
-      </c>
-      <c r="J500" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17302,14 +18542,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>422</v>
       </c>
-      <c r="J501" t="n">
-        <v>423</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17343,14 +18581,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>421</v>
       </c>
-      <c r="J502" t="n">
-        <v>423</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17384,14 +18620,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>421</v>
       </c>
-      <c r="J503" t="n">
-        <v>423</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17425,14 +18659,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>421</v>
       </c>
-      <c r="J504" t="n">
-        <v>423</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17466,14 +18698,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>421</v>
       </c>
-      <c r="J505" t="n">
-        <v>423</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17507,14 +18737,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>421</v>
       </c>
-      <c r="J506" t="n">
-        <v>423</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17548,14 +18776,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>421</v>
       </c>
-      <c r="J507" t="n">
-        <v>423</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17589,14 +18815,12 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>421</v>
       </c>
-      <c r="J508" t="n">
-        <v>423</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17630,14 +18854,12 @@
         <v>-267850.7180846001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>421</v>
       </c>
-      <c r="J509" t="n">
-        <v>423</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17671,14 +18893,12 @@
         <v>-267849.7180846001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>420</v>
       </c>
-      <c r="J510" t="n">
-        <v>423</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17712,14 +18932,12 @@
         <v>-267849.7180846001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>423</v>
       </c>
-      <c r="J511" t="n">
-        <v>423</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17753,12 +18971,12 @@
         <v>-268623.8310846001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
         <v>423</v>
       </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17792,12 +19010,12 @@
         <v>-268620.7601846001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>423</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>422</v>
+      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17831,12 +19049,12 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
         <v>423</v>
       </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17873,9 +19091,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>423</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17912,9 +19128,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>423</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17951,9 +19165,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>423</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17990,9 +19202,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>423</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18029,9 +19239,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>423</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18068,9 +19276,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>423</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18107,9 +19313,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>423</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18143,14 +19347,10 @@
         <v>-259587.25319919</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>426</v>
-      </c>
-      <c r="J522" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18187,9 +19387,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>423</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18223,14 +19421,10 @@
         <v>-260657.33039919</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>427</v>
-      </c>
-      <c r="J524" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18267,9 +19461,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>423</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18306,9 +19498,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>423</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,9 +19535,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>423</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18384,9 +19572,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>423</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18423,9 +19609,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>423</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18459,14 +19643,10 @@
         <v>-295793.23499919</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="n">
-        <v>425</v>
-      </c>
-      <c r="J530" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18500,14 +19680,10 @@
         <v>-295793.23499919</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>425</v>
-      </c>
-      <c r="J531" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18541,14 +19717,10 @@
         <v>-295792.23499919</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>425</v>
-      </c>
-      <c r="J532" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18582,14 +19754,12 @@
         <v>-297028.53109919</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>426</v>
       </c>
-      <c r="J533" t="n">
-        <v>423</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18623,14 +19793,12 @@
         <v>-297442.76819919</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>423</v>
       </c>
-      <c r="J534" t="n">
-        <v>423</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18664,14 +19832,12 @@
         <v>-297345.1276991901</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>422</v>
       </c>
-      <c r="J535" t="n">
-        <v>423</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18705,14 +19871,12 @@
         <v>-293046.9206991901</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>423</v>
       </c>
-      <c r="J536" t="n">
-        <v>423</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18746,14 +19910,12 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>425</v>
       </c>
-      <c r="J537" t="n">
-        <v>423</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18787,12 +19949,12 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>423</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>426</v>
+      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18829,9 +19991,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>423</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18865,14 +20025,10 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>426</v>
-      </c>
-      <c r="J540" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18909,9 +20065,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>423</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,9 +20102,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>423</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18987,9 +20139,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>423</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,9 +20176,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>423</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19065,9 +20213,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>423</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19104,9 +20250,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>423</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19140,12 +20284,12 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>423</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>426</v>
+      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19182,9 +20326,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>423</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +20363,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>423</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19260,9 +20400,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>423</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,9 +20437,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>423</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19338,9 +20474,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>423</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,9 +20511,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>423</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,9 +20548,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>423</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19455,9 +20585,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>423</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19494,9 +20622,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>423</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19530,14 +20656,10 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>429</v>
-      </c>
-      <c r="J557" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19574,9 +20696,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>423</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19610,14 +20730,10 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>429</v>
-      </c>
-      <c r="J559" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19651,14 +20767,10 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>429</v>
-      </c>
-      <c r="J560" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19692,14 +20804,10 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>429</v>
-      </c>
-      <c r="J561" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19736,9 +20844,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>423</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19772,14 +20878,10 @@
         <v>-275806.7283991901</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>430</v>
-      </c>
-      <c r="J563" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19813,14 +20915,10 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>431</v>
-      </c>
-      <c r="J564" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19854,14 +20952,10 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>430</v>
-      </c>
-      <c r="J565" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19898,9 +20992,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>423</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19934,14 +21026,10 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>431</v>
-      </c>
-      <c r="J567" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,19 +21063,17 @@
         <v>-277955.8240991901</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>423</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L568" t="n">
-        <v>1.011548463356974</v>
+        <v>1</v>
       </c>
       <c r="M568" t="inlineStr"/>
     </row>
@@ -20018,7 +21104,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20051,7 +21141,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20084,7 +21178,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20117,7 +21215,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20146,15 +21248,13 @@
         <v>-278720.4435991901</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L573" t="n">
@@ -20333,9 +21433,11 @@
         <v>-281428.2940991902</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>423</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20370,9 +21472,11 @@
         <v>-281457.4746991902</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>427</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20407,7 +21511,7 @@
         <v>-277294.8952991902</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>425</v>
@@ -20446,9 +21550,11 @@
         <v>-279097.8952991902</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>426</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20483,9 +21589,11 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>423</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20520,9 +21628,11 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>425</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20557,9 +21667,11 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>425</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20594,9 +21706,11 @@
         <v>-312135.8681991902</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>425</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20705,9 +21819,11 @@
         <v>-308089.5287991902</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>421</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20742,9 +21858,11 @@
         <v>-305787.7570342502</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>424</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20779,9 +21897,11 @@
         <v>-306990.7570342502</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>425</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20816,9 +21936,11 @@
         <v>-296305.9519342502</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>424</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20853,9 +21975,11 @@
         <v>-296305.9519342502</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>425</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20890,9 +22014,11 @@
         <v>-296305.9519342502</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>425</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20927,9 +22053,11 @@
         <v>-293964.0316342502</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>425</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21186,11 +22314,9 @@
         <v>-293870.6910342502</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21225,11 +22351,9 @@
         <v>-293870.6910342502</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21264,11 +22388,9 @@
         <v>-296629.8036342502</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21303,7 +22425,7 @@
         <v>-296447.7484342502</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>426</v>
@@ -21675,9 +22797,11 @@
         <v>-304810.9230342502</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>424</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -22378,11 +23502,9 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22417,7 +23539,7 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>425</v>
@@ -22456,11 +23578,9 @@
         <v>-327729.8819342503</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22495,11 +23615,9 @@
         <v>-327728.8819342503</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22608,11 +23726,9 @@
         <v>-327728.7000342503</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -22647,11 +23763,9 @@
         <v>-328035.5532342503</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -22686,11 +23800,9 @@
         <v>-334034.4174342503</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22703,6 +23815,6 @@
       <c r="M641" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest MTL.xlsx
+++ b/BackTest/2019-11-01 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-51239.29307744999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-53807.38117744999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-53807.38117744999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-53807.38117744999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-51560.95577744999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-51560.95577744999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-35933.85904535999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-26922.27858114999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-26922.27858114999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24232.17156478999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24232.17156478999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-65225.40197281999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-68236.70237282</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-83667.47797281999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-79078.44237281999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-82062.39707281999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-111102.46457282</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-111102.46457282</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-109359.17067282</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-109359.17067282</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -3619,17 +3619,11 @@
         <v>-229142.50908798</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3658,17 +3652,11 @@
         <v>-228504.65878798</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3697,17 +3685,11 @@
         <v>-228503.65878798</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3736,17 +3718,11 @@
         <v>-228886.34878798</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3775,17 +3751,11 @@
         <v>-222599.70408798</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3818,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3929,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3966,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4040,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4077,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4188,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4299,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4336,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4484,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4521,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4558,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4669,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4706,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4743,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4780,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4928,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4965,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5002,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5039,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5113,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5150,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5187,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5261,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5298,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5372,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5409,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5446,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5483,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5520,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5594,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5705,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5742,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5779,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5849,15 +5599,11 @@
         <v>-144932.56508798</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5890,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5927,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5964,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5997,15 +5731,11 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6034,15 +5764,11 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6075,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6112,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6186,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6223,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6260,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6297,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6334,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6371,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6408,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6445,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6519,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6589,15 +6259,11 @@
         <v>-113904.3554912201</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6626,15 +6292,11 @@
         <v>-103158.2605912201</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6663,15 +6325,11 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6700,15 +6358,11 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6737,15 +6391,11 @@
         <v>-106866.2294912201</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6774,15 +6424,11 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6811,15 +6457,11 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6848,15 +6490,11 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6885,15 +6523,11 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6922,15 +6556,11 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6959,15 +6589,11 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6996,15 +6622,11 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7033,15 +6655,11 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7070,15 +6688,11 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7107,15 +6721,11 @@
         <v>-109765.9535912201</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7148,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7185,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7218,15 +6820,11 @@
         <v>-107177.6701912201</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7259,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7296,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7333,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7370,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7407,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7444,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7481,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7518,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7555,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7592,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7629,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7666,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7740,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7814,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7851,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7962,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7999,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8036,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8073,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8110,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8147,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8184,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8217,15 +7711,11 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8254,15 +7744,11 @@
         <v>-117978.4069912201</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8291,15 +7777,11 @@
         <v>-118085.4069912201</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8369,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8406,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8443,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8480,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8517,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8554,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8591,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8628,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8665,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8702,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8739,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8776,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8813,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8850,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8887,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8924,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8961,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9035,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9072,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9109,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9183,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9220,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9257,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9294,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9368,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9405,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9442,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9479,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9516,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9590,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9627,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9664,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9701,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9738,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9775,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9812,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9849,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9886,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9923,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9960,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9997,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10034,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10071,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10108,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10145,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10182,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10256,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10293,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10330,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10367,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10404,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10478,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10515,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10552,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10589,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10626,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10663,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10700,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10737,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10774,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10811,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10848,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10885,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10922,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10959,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10996,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11033,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11070,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11107,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11144,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11181,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11218,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11255,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11292,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11329,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11403,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11477,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11514,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11551,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11588,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11625,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11699,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11736,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11773,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11810,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11884,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12069,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12106,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12180,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12254,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12291,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12328,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12365,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12402,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12439,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12476,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12513,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12587,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12624,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12735,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12772,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12809,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12846,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12883,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12957,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12994,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13031,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13068,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13105,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13142,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13179,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13216,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13253,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13327,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13364,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13401,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13438,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13475,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13512,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13549,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13586,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13619,15 +12529,11 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13656,15 +12562,11 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13693,15 +12595,11 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13730,15 +12628,11 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13767,15 +12661,11 @@
         <v>-188419.6979305801</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13804,15 +12694,11 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13841,15 +12727,11 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13878,15 +12760,11 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13915,15 +12793,11 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13952,15 +12826,11 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13989,15 +12859,11 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14026,15 +12892,11 @@
         <v>-209219.3074305801</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14063,15 +12925,11 @@
         <v>-207125.3849305801</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14100,15 +12958,11 @@
         <v>-207824.9252305801</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14137,15 +12991,11 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14174,15 +13024,11 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14211,15 +13057,11 @@
         <v>-213882.9716305801</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14248,15 +13090,11 @@
         <v>-206640.0842305801</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14285,15 +13123,11 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14322,15 +13156,11 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14359,15 +13189,11 @@
         <v>-213600.3771953201</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14437,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14474,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14511,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14548,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14585,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14622,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14655,15 +13453,11 @@
         <v>-206310.77749532</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14696,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14733,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14770,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14807,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14844,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14877,15 +13651,11 @@
         <v>-204981.79509532</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14918,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14955,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14992,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15029,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15066,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15140,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15177,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15214,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15251,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15288,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15325,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15362,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15399,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15436,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15473,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15510,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15547,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15584,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15621,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15658,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15695,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15732,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15769,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15806,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15843,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15880,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15917,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15954,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15991,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16028,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16065,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16102,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16139,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16176,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16213,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16250,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16287,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16361,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16398,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16435,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16472,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16509,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16546,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16583,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16620,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16657,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16694,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16731,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16768,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16805,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16842,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16879,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16916,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16953,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16990,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17027,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17064,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17101,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17138,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17175,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17212,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17249,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17286,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17323,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17360,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17397,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17434,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17471,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17508,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17582,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17619,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17656,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17693,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17730,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17767,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17804,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17841,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17878,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17915,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17952,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17989,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18026,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18063,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18096,17 +16522,11 @@
         <v>-247669.2303846001</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18176,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18213,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18250,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18287,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18324,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18361,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18398,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18435,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18472,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18509,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18542,17 +16918,11 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18581,17 +16951,11 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18620,17 +16984,11 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18664,12 +17022,10 @@
       <c r="I504" t="n">
         <v>421</v>
       </c>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="n">
+        <v>421</v>
+      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18703,10 +17059,12 @@
       <c r="I505" t="n">
         <v>421</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>421</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L505" t="n">
@@ -18742,10 +17100,12 @@
       <c r="I506" t="n">
         <v>421</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>421</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L506" t="n">
@@ -18781,12 +17141,10 @@
       <c r="I507" t="n">
         <v>421</v>
       </c>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="n">
+        <v>421</v>
+      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18820,10 +17178,12 @@
       <c r="I508" t="n">
         <v>421</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>421</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -18859,10 +17219,12 @@
       <c r="I509" t="n">
         <v>421</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>421</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -18898,12 +17260,10 @@
       <c r="I510" t="n">
         <v>420</v>
       </c>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="n">
+        <v>420</v>
+      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18932,15 +17292,15 @@
         <v>-267849.7180846001</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>423</v>
-      </c>
-      <c r="J511" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>420</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L511" t="n">
@@ -18971,15 +17331,15 @@
         <v>-268623.8310846001</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>423</v>
-      </c>
-      <c r="J512" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>420</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L512" t="n">
@@ -19010,17 +17370,11 @@
         <v>-268620.7601846001</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19049,17 +17403,11 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19092,11 +17440,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +17473,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19166,11 +17506,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19203,11 +17539,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19240,11 +17572,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19277,11 +17605,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19314,11 +17638,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19351,11 +17671,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19388,11 +17704,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19425,11 +17737,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19462,11 +17770,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19499,11 +17803,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19536,11 +17836,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19573,11 +17869,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19610,11 +17902,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19647,11 +17935,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19684,11 +17968,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19721,11 +18001,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19754,17 +18030,11 @@
         <v>-297028.53109919</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19793,17 +18063,11 @@
         <v>-297442.76819919</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19832,17 +18096,11 @@
         <v>-297345.1276991901</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19871,17 +18129,11 @@
         <v>-293046.9206991901</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19910,17 +18162,11 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19949,17 +18195,11 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19992,11 +18232,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20029,11 +18265,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20066,11 +18298,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20103,11 +18331,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20140,11 +18364,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20177,11 +18397,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20214,11 +18430,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +18463,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20284,17 +18492,11 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20327,11 +18529,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20364,11 +18562,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20401,11 +18595,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20434,15 +18624,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20471,15 +18657,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20508,15 +18690,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20545,15 +18723,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20582,15 +18756,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20619,15 +18789,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20656,15 +18822,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20693,15 +18855,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20730,15 +18888,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20767,15 +18921,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20804,15 +18954,11 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20841,15 +18987,11 @@
         <v>-285944.0872991901</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20878,15 +19020,11 @@
         <v>-275806.7283991901</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20915,15 +19053,11 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20952,15 +19086,11 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20989,15 +19119,11 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21026,15 +19152,11 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21063,15 +19185,11 @@
         <v>-277955.8240991901</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21104,11 +19222,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21137,15 +19251,11 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21174,15 +19284,11 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21211,15 +19317,11 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21252,11 +19354,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21289,11 +19387,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21326,11 +19420,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21363,11 +19453,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21400,11 +19486,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21433,17 +19515,11 @@
         <v>-281428.2940991902</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21472,17 +19548,11 @@
         <v>-281457.4746991902</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21511,17 +19581,11 @@
         <v>-277294.8952991902</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21550,17 +19614,11 @@
         <v>-279097.8952991902</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>426</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21589,17 +19647,11 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21628,17 +19680,11 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21667,17 +19713,11 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21706,17 +19746,11 @@
         <v>-312135.8681991902</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21749,11 +19783,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21786,11 +19816,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21819,17 +19845,11 @@
         <v>-308089.5287991902</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21858,17 +19878,11 @@
         <v>-305787.7570342502</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21897,17 +19911,11 @@
         <v>-306990.7570342502</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21936,17 +19944,11 @@
         <v>-296305.9519342502</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21975,17 +19977,11 @@
         <v>-296305.9519342502</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22014,17 +20010,11 @@
         <v>-296305.9519342502</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22053,17 +20043,11 @@
         <v>-293964.0316342502</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22096,11 +20080,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22133,11 +20113,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22170,11 +20146,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22207,11 +20179,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22244,11 +20212,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22281,11 +20245,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22318,11 +20278,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22355,11 +20311,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22392,11 +20344,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22425,17 +20373,11 @@
         <v>-296447.7484342502</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22468,11 +20410,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22505,11 +20443,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22542,11 +20476,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22579,11 +20509,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22616,11 +20542,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22653,11 +20575,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22690,11 +20608,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22727,11 +20641,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22764,11 +20674,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22797,17 +20703,11 @@
         <v>-304810.9230342502</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22840,11 +20740,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22877,11 +20773,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22914,11 +20806,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22951,11 +20839,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22988,11 +20872,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23025,11 +20905,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23062,11 +20938,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23099,11 +20971,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23136,11 +21004,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23173,11 +21037,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23210,11 +21070,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23247,11 +21103,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23284,11 +21136,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23321,11 +21169,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23358,11 +21202,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23395,11 +21235,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23432,11 +21268,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23469,11 +21301,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23506,11 +21334,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23539,17 +21363,11 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23582,11 +21400,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23619,11 +21433,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23656,11 +21466,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23693,11 +21499,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23730,11 +21532,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23767,11 +21565,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23804,17 +21598,13 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
       <c r="M641" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest MTL.xlsx
+++ b/BackTest/2019-11-01 BackTest MTL.xlsx
@@ -880,7 +880,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-144932.56508798</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-113904.3554912201</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-103158.2605912201</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-106866.2294912201</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-109765.9535912201</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-107177.6701912201</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-116084.6640912201</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-117647.2968912201</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-120112.5640912201</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-122793.1561912201</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-122792.1561912201</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-121503.2037912201</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-125714.2663912201</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-112361.3236912201</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-112362.3236912201</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-112362.3236912201</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-117978.4069912201</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-118085.4069912201</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-118085.4069912201</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-105844.4616912201</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-98535.88808637008</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-97492.40895757008</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-97864.14495757008</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-100197.7262575701</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-94884.30685757009</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-94418.49335757009</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-97312.26695757009</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-112264.6467575701</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-113842.4515575701</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-120733.4670575701</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-117437.6561575701</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-122143.8854575701</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-128710.6574575701</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-128667.3723575701</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-128666.2623575701</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-128242.2577575701</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-129323.6135575701</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-129323.6135575701</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-129543.0634575701</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-128500.1930575701</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-188419.6979305801</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-209219.3074305801</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-207125.3849305801</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-207824.9252305801</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-213882.9716305801</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-206640.0842305801</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-212241.8223953201</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-210398.3317441601</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-206842.2856078501</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-207301.8308078501</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-208870.61000785</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-204995.28849532</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-202712.03219532</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-204231.29719532</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-202940.03109532</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-202913.79509532</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-205293.79509532</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-204981.79509532</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-203832.31419532</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-191360.23629532</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-191847.86919532</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-186389.72739532</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-191088.96349532</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-187687.86179532</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-186427.79449532</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-186427.79449532</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-195168.61059532</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16951,10 +16951,14 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>421</v>
+      </c>
+      <c r="J502" t="n">
+        <v>421</v>
+      </c>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
@@ -16984,11 +16988,19 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>421</v>
+      </c>
+      <c r="J503" t="n">
+        <v>421</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17025,7 +17037,11 @@
       <c r="J504" t="n">
         <v>421</v>
       </c>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17062,11 +17078,7 @@
       <c r="J505" t="n">
         <v>421</v>
       </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +17156,11 @@
       <c r="J507" t="n">
         <v>421</v>
       </c>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17181,11 +17197,7 @@
       <c r="J508" t="n">
         <v>421</v>
       </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17261,9 +17273,13 @@
         <v>420</v>
       </c>
       <c r="J510" t="n">
-        <v>420</v>
-      </c>
-      <c r="K510" t="inlineStr"/>
+        <v>421</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17292,17 +17308,15 @@
         <v>-267849.7180846001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>423</v>
+      </c>
       <c r="J511" t="n">
-        <v>420</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17331,11 +17345,13 @@
         <v>-268623.8310846001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>423</v>
+      </c>
       <c r="J512" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17370,11 +17386,19 @@
         <v>-268620.7601846001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>422</v>
+      </c>
+      <c r="J513" t="n">
+        <v>423</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17403,11 +17427,19 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>423</v>
+      </c>
+      <c r="J514" t="n">
+        <v>423</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17436,11 +17468,19 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>425</v>
+      </c>
+      <c r="J515" t="n">
+        <v>423</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17469,11 +17509,19 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>425</v>
+      </c>
+      <c r="J516" t="n">
+        <v>423</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17502,11 +17550,19 @@
         <v>-262531.32209919</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>425</v>
+      </c>
+      <c r="J517" t="n">
+        <v>423</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17538,8 +17594,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>423</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17571,8 +17633,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>423</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17601,11 +17669,19 @@
         <v>-259590.25319919</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>424</v>
+      </c>
+      <c r="J520" t="n">
+        <v>423</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17634,11 +17710,19 @@
         <v>-259587.25319919</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>424</v>
+      </c>
+      <c r="J521" t="n">
+        <v>423</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17667,11 +17751,19 @@
         <v>-259587.25319919</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>426</v>
+      </c>
+      <c r="J522" t="n">
+        <v>423</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17703,8 +17795,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>423</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17736,8 +17834,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>423</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17766,11 +17870,19 @@
         <v>-298539.02239919</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>423</v>
+      </c>
+      <c r="J525" t="n">
+        <v>423</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17802,8 +17914,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>423</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17835,8 +17953,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>423</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17868,8 +17992,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>423</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17901,8 +18031,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>423</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17934,8 +18070,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>423</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17967,8 +18109,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>423</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17997,11 +18145,19 @@
         <v>-295792.23499919</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>425</v>
+      </c>
+      <c r="J532" t="n">
+        <v>423</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18033,8 +18189,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>423</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18063,11 +18225,19 @@
         <v>-297442.76819919</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>423</v>
+      </c>
+      <c r="J534" t="n">
+        <v>423</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18096,11 +18266,19 @@
         <v>-297345.1276991901</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>422</v>
+      </c>
+      <c r="J535" t="n">
+        <v>423</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18129,11 +18307,19 @@
         <v>-293046.9206991901</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>423</v>
+      </c>
+      <c r="J536" t="n">
+        <v>423</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18165,8 +18351,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>423</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18198,8 +18390,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>423</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18228,11 +18426,19 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>426</v>
+      </c>
+      <c r="J539" t="n">
+        <v>423</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18261,11 +18467,19 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>426</v>
+      </c>
+      <c r="J540" t="n">
+        <v>423</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18297,8 +18511,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>423</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18330,8 +18550,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>423</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18363,8 +18589,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>423</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18396,8 +18628,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>423</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18429,8 +18667,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>423</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18459,11 +18703,19 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>426</v>
+      </c>
+      <c r="J546" t="n">
+        <v>423</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18492,11 +18744,19 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>426</v>
+      </c>
+      <c r="J547" t="n">
+        <v>423</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18525,11 +18785,19 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>426</v>
+      </c>
+      <c r="J548" t="n">
+        <v>423</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18558,11 +18826,19 @@
         <v>-277744.3559991901</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>426</v>
+      </c>
+      <c r="J549" t="n">
+        <v>423</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18591,11 +18867,19 @@
         <v>-287311.0872991901</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>429</v>
+      </c>
+      <c r="J550" t="n">
+        <v>423</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18624,11 +18908,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>424</v>
+      </c>
+      <c r="J551" t="n">
+        <v>423</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18657,11 +18949,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>429</v>
+      </c>
+      <c r="J552" t="n">
+        <v>423</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18690,11 +18990,17 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>423</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18723,11 +19029,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>429</v>
+      </c>
+      <c r="J554" t="n">
+        <v>423</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18756,11 +19070,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>429</v>
+      </c>
+      <c r="J555" t="n">
+        <v>423</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18789,11 +19111,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>429</v>
+      </c>
+      <c r="J556" t="n">
+        <v>423</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18822,11 +19152,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>429</v>
+      </c>
+      <c r="J557" t="n">
+        <v>423</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18855,11 +19193,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>429</v>
+      </c>
+      <c r="J558" t="n">
+        <v>423</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18888,11 +19234,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>429</v>
+      </c>
+      <c r="J559" t="n">
+        <v>423</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18921,11 +19275,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>429</v>
+      </c>
+      <c r="J560" t="n">
+        <v>423</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18954,11 +19316,19 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>429</v>
+      </c>
+      <c r="J561" t="n">
+        <v>423</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18987,11 +19357,19 @@
         <v>-285944.0872991901</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>429</v>
+      </c>
+      <c r="J562" t="n">
+        <v>423</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19020,11 +19398,19 @@
         <v>-275806.7283991901</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>430</v>
+      </c>
+      <c r="J563" t="n">
+        <v>423</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19053,11 +19439,17 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>423</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19086,11 +19478,17 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>423</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19119,11 +19517,17 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>423</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19152,11 +19556,17 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>423</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19185,11 +19595,17 @@
         <v>-277955.8240991901</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>423</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19221,8 +19637,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>423</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19251,11 +19673,17 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>423</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19284,11 +19712,17 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>423</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19317,11 +19751,19 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>428</v>
+      </c>
+      <c r="J572" t="n">
+        <v>423</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19350,11 +19792,19 @@
         <v>-278720.4435991901</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>428</v>
+      </c>
+      <c r="J573" t="n">
+        <v>423</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19386,8 +19836,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>423</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19419,8 +19875,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>423</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19452,8 +19914,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>423</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +19953,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>423</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19515,11 +19989,19 @@
         <v>-281428.2940991902</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>423</v>
+      </c>
+      <c r="J578" t="n">
+        <v>423</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19548,11 +20030,19 @@
         <v>-281457.4746991902</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>427</v>
+      </c>
+      <c r="J579" t="n">
+        <v>423</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19581,11 +20071,19 @@
         <v>-277294.8952991902</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>425</v>
+      </c>
+      <c r="J580" t="n">
+        <v>423</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19614,11 +20112,19 @@
         <v>-279097.8952991902</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>426</v>
+      </c>
+      <c r="J581" t="n">
+        <v>423</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19647,11 +20153,19 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>423</v>
+      </c>
+      <c r="J582" t="n">
+        <v>423</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19680,11 +20194,19 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>425</v>
+      </c>
+      <c r="J583" t="n">
+        <v>423</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19713,11 +20235,19 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>425</v>
+      </c>
+      <c r="J584" t="n">
+        <v>423</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19746,11 +20276,19 @@
         <v>-312135.8681991902</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>425</v>
+      </c>
+      <c r="J585" t="n">
+        <v>423</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19782,8 +20320,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>423</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19815,8 +20359,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>423</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19848,8 +20398,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>423</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19881,8 +20437,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>423</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19914,8 +20476,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>423</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19947,8 +20515,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>423</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19980,8 +20554,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>423</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20013,8 +20593,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>423</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20046,8 +20632,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>423</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20079,8 +20671,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>423</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20112,8 +20710,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>423</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20145,8 +20749,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>423</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20178,8 +20788,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>423</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20211,8 +20827,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>423</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20244,8 +20866,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>423</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20277,8 +20905,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>423</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20310,8 +20944,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>423</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20343,8 +20983,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>423</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20376,8 +21022,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>423</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20409,8 +21061,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>423</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20442,8 +21100,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>423</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20475,8 +21139,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>423</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20508,8 +21178,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>423</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20541,8 +21217,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>423</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20574,8 +21256,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>423</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20604,11 +21292,19 @@
         <v>-301290.8649342502</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>424</v>
+      </c>
+      <c r="J611" t="n">
+        <v>423</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20637,11 +21333,19 @@
         <v>-306244.0100342502</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>425</v>
+      </c>
+      <c r="J612" t="n">
+        <v>423</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20670,11 +21374,19 @@
         <v>-306244.0100342502</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>424</v>
+      </c>
+      <c r="J613" t="n">
+        <v>423</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20703,11 +21415,19 @@
         <v>-304810.9230342502</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>424</v>
+      </c>
+      <c r="J614" t="n">
+        <v>423</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20736,11 +21456,19 @@
         <v>-305307.3600342502</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>425</v>
+      </c>
+      <c r="J615" t="n">
+        <v>423</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20769,11 +21497,19 @@
         <v>-315913.0205342502</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>424</v>
+      </c>
+      <c r="J616" t="n">
+        <v>423</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20802,11 +21538,19 @@
         <v>-315305.3518342502</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>423</v>
+      </c>
+      <c r="J617" t="n">
+        <v>423</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20835,11 +21579,19 @@
         <v>-313908.9859342502</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>425</v>
+      </c>
+      <c r="J618" t="n">
+        <v>423</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20871,8 +21623,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>423</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20904,8 +21662,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>423</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20934,11 +21698,19 @@
         <v>-315148.6745342502</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>426</v>
+      </c>
+      <c r="J621" t="n">
+        <v>423</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20967,11 +21739,19 @@
         <v>-313686.5498342502</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>424</v>
+      </c>
+      <c r="J622" t="n">
+        <v>423</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21000,11 +21780,19 @@
         <v>-313686.5498342502</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>426</v>
+      </c>
+      <c r="J623" t="n">
+        <v>423</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21033,11 +21821,19 @@
         <v>-316756.1052342503</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>426</v>
+      </c>
+      <c r="J624" t="n">
+        <v>423</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21066,11 +21862,19 @@
         <v>-316656.1052342503</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>423</v>
+      </c>
+      <c r="J625" t="n">
+        <v>423</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21099,11 +21903,19 @@
         <v>-317464.8574342502</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>426</v>
+      </c>
+      <c r="J626" t="n">
+        <v>423</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21132,11 +21944,19 @@
         <v>-318415.8512342502</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>425</v>
+      </c>
+      <c r="J627" t="n">
+        <v>423</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21165,11 +21985,19 @@
         <v>-318394.8512342502</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>424</v>
+      </c>
+      <c r="J628" t="n">
+        <v>423</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21198,11 +22026,19 @@
         <v>-318394.8512342502</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>425</v>
+      </c>
+      <c r="J629" t="n">
+        <v>423</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21231,11 +22067,19 @@
         <v>-325332.4976342503</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>425</v>
+      </c>
+      <c r="J630" t="n">
+        <v>423</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21264,11 +22108,19 @@
         <v>-325331.4976342503</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>424</v>
+      </c>
+      <c r="J631" t="n">
+        <v>423</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21297,11 +22149,19 @@
         <v>-327541.8026342503</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>425</v>
+      </c>
+      <c r="J632" t="n">
+        <v>423</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21330,11 +22190,19 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>424</v>
+      </c>
+      <c r="J633" t="n">
+        <v>423</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21363,11 +22231,19 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>425</v>
+      </c>
+      <c r="J634" t="n">
+        <v>423</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21396,11 +22272,19 @@
         <v>-327729.8819342503</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>425</v>
+      </c>
+      <c r="J635" t="n">
+        <v>423</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21429,11 +22313,19 @@
         <v>-327728.8819342503</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>423</v>
+      </c>
+      <c r="J636" t="n">
+        <v>423</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21465,8 +22357,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>423</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21498,8 +22396,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>423</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21528,11 +22432,19 @@
         <v>-327728.7000342503</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>425</v>
+      </c>
+      <c r="J639" t="n">
+        <v>423</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21561,11 +22473,19 @@
         <v>-328035.5532342503</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>428</v>
+      </c>
+      <c r="J640" t="n">
+        <v>423</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21594,11 +22514,19 @@
         <v>-334034.4174342503</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>427</v>
+      </c>
+      <c r="J641" t="n">
+        <v>423</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
